--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.908061</v>
+        <v>25.3659715</v>
       </c>
       <c r="H2">
-        <v>45.816122</v>
+        <v>50.731943</v>
       </c>
       <c r="I2">
-        <v>0.1456291846194737</v>
+        <v>0.1464818225604603</v>
       </c>
       <c r="J2">
-        <v>0.1077343526439498</v>
+        <v>0.108006609972784</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>344.99860578854</v>
+        <v>186.933207938732</v>
       </c>
       <c r="R2">
-        <v>1379.99442315416</v>
+        <v>747.732831754928</v>
       </c>
       <c r="S2">
-        <v>0.1085974750126452</v>
+        <v>0.1091671665360576</v>
       </c>
       <c r="T2">
-        <v>0.07127646811861851</v>
+        <v>0.07139903249475639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.908061</v>
+        <v>25.3659715</v>
       </c>
       <c r="H3">
-        <v>45.816122</v>
+        <v>50.731943</v>
       </c>
       <c r="I3">
-        <v>0.1456291846194737</v>
+        <v>0.1464818225604603</v>
       </c>
       <c r="J3">
-        <v>0.1077343526439498</v>
+        <v>0.108006609972784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>2.529355375213333</v>
+        <v>2.800741466553333</v>
       </c>
       <c r="R3">
-        <v>15.17613225128</v>
+        <v>16.80444879932</v>
       </c>
       <c r="S3">
-        <v>0.0007961817889959545</v>
+        <v>0.001635605644792017</v>
       </c>
       <c r="T3">
-        <v>0.0007838445492409497</v>
+        <v>0.001604612416259882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.908061</v>
+        <v>25.3659715</v>
       </c>
       <c r="H4">
-        <v>45.816122</v>
+        <v>50.731943</v>
       </c>
       <c r="I4">
-        <v>0.1456291846194737</v>
+        <v>0.1464818225604603</v>
       </c>
       <c r="J4">
-        <v>0.1077343526439498</v>
+        <v>0.108006609972784</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>1.250207429075</v>
+        <v>2.1521251199745</v>
       </c>
       <c r="R4">
-        <v>7.50124457445</v>
+        <v>12.912750719847</v>
       </c>
       <c r="S4">
-        <v>0.0003935359962666426</v>
+        <v>0.001256820037324198</v>
       </c>
       <c r="T4">
-        <v>0.0003874379568423938</v>
+        <v>0.001233004449034571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.908061</v>
+        <v>25.3659715</v>
       </c>
       <c r="H5">
-        <v>45.816122</v>
+        <v>50.731943</v>
       </c>
       <c r="I5">
-        <v>0.1456291846194737</v>
+        <v>0.1464818225604603</v>
       </c>
       <c r="J5">
-        <v>0.1077343526439498</v>
+        <v>0.108006609972784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>113.8648684574353</v>
+        <v>58.943161634265</v>
       </c>
       <c r="R5">
-        <v>683.1892107446121</v>
+        <v>353.65896980559</v>
       </c>
       <c r="S5">
-        <v>0.03584199182156585</v>
+        <v>0.03442223034228648</v>
       </c>
       <c r="T5">
-        <v>0.03528660201924794</v>
+        <v>0.03376996061273321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>99.605096</v>
       </c>
       <c r="I6">
-        <v>0.2110670259175638</v>
+        <v>0.1917310887460603</v>
       </c>
       <c r="J6">
-        <v>0.2342164737905682</v>
+        <v>0.2120559182007618</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>500.0222301578133</v>
+        <v>244.6781918356693</v>
       </c>
       <c r="R6">
-        <v>3000.13338094688</v>
+        <v>1468.069151014016</v>
       </c>
       <c r="S6">
-        <v>0.1573952785148734</v>
+        <v>0.142889672789548</v>
       </c>
       <c r="T6">
-        <v>0.1549563590191229</v>
+        <v>0.1401820443965122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>99.605096</v>
       </c>
       <c r="I7">
-        <v>0.2110670259175638</v>
+        <v>0.1917310887460603</v>
       </c>
       <c r="J7">
-        <v>0.2342164737905682</v>
+        <v>0.2120559182007618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>3.665910222115555</v>
@@ -889,10 +889,10 @@
         <v>32.99319199904</v>
       </c>
       <c r="S7">
-        <v>0.001153942616187868</v>
+        <v>0.002140855742737216</v>
       </c>
       <c r="T7">
-        <v>0.001704092537037978</v>
+        <v>0.003150432731589986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>99.605096</v>
       </c>
       <c r="I8">
-        <v>0.2110670259175638</v>
+        <v>0.1917310887460603</v>
       </c>
       <c r="J8">
-        <v>0.2342164737905682</v>
+        <v>0.2120559182007618</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>1.811982704733333</v>
+        <v>2.816931719976</v>
       </c>
       <c r="R8">
-        <v>16.3078443426</v>
+        <v>25.352385479784</v>
       </c>
       <c r="S8">
-        <v>0.0005703696861350039</v>
+        <v>0.001645060594563341</v>
       </c>
       <c r="T8">
-        <v>0.000842297278790433</v>
+        <v>0.002420832305092584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>99.605096</v>
       </c>
       <c r="I9">
-        <v>0.2110670259175638</v>
+        <v>0.1917310887460603</v>
       </c>
       <c r="J9">
-        <v>0.2342164737905682</v>
+        <v>0.2120559182007618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>165.0295523153796</v>
+        <v>77.15111920872</v>
       </c>
       <c r="R9">
-        <v>1485.265970838416</v>
+        <v>694.3600728784801</v>
       </c>
       <c r="S9">
-        <v>0.05194743510036753</v>
+        <v>0.04505549961921174</v>
       </c>
       <c r="T9">
-        <v>0.07671372495561683</v>
+        <v>0.06630260876756702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.45681333333333</v>
+        <v>32.638883</v>
       </c>
       <c r="H10">
-        <v>91.37044</v>
+        <v>97.91664900000001</v>
       </c>
       <c r="I10">
-        <v>0.1936174734230386</v>
+        <v>0.188480976105237</v>
       </c>
       <c r="J10">
-        <v>0.2148530860860039</v>
+        <v>0.2084612710060207</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>458.6838727538667</v>
+        <v>240.530551046584</v>
       </c>
       <c r="R10">
-        <v>2752.1032365232</v>
+        <v>1443.183306279504</v>
       </c>
       <c r="S10">
-        <v>0.1443829324940014</v>
+        <v>0.1404674911036582</v>
       </c>
       <c r="T10">
-        <v>0.1421456458851787</v>
+        <v>0.137805760834523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.45681333333333</v>
+        <v>32.638883</v>
       </c>
       <c r="H11">
-        <v>91.37044</v>
+        <v>97.91664900000001</v>
       </c>
       <c r="I11">
-        <v>0.1936174734230386</v>
+        <v>0.188480976105237</v>
       </c>
       <c r="J11">
-        <v>0.2148530860860039</v>
+        <v>0.2084612710060207</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>3.362838282844444</v>
+        <v>3.603767868306666</v>
       </c>
       <c r="R11">
-        <v>30.2655445456</v>
+        <v>32.43391081476</v>
       </c>
       <c r="S11">
-        <v>0.001058542673116209</v>
+        <v>0.002104565215430688</v>
       </c>
       <c r="T11">
-        <v>0.001563210028027847</v>
+        <v>0.003097028448998311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.45681333333333</v>
+        <v>32.638883</v>
       </c>
       <c r="H12">
-        <v>91.37044</v>
+        <v>97.91664900000001</v>
       </c>
       <c r="I12">
-        <v>0.1936174734230386</v>
+        <v>0.188480976105237</v>
       </c>
       <c r="J12">
-        <v>0.2148530860860039</v>
+        <v>0.2084612710060207</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>1.662180587666667</v>
+        <v>2.769180750369</v>
       </c>
       <c r="R12">
-        <v>14.959625289</v>
+        <v>24.922626753321</v>
       </c>
       <c r="S12">
-        <v>0.0005232154907497625</v>
+        <v>0.00161717449498357</v>
       </c>
       <c r="T12">
-        <v>0.0007726620028947568</v>
+        <v>0.002379795779782307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.45681333333333</v>
+        <v>32.638883</v>
       </c>
       <c r="H13">
-        <v>91.37044</v>
+        <v>97.91664900000001</v>
       </c>
       <c r="I13">
-        <v>0.1936174734230386</v>
+        <v>0.188480976105237</v>
       </c>
       <c r="J13">
-        <v>0.2148530860860039</v>
+        <v>0.2084612710060207</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>151.3860576778045</v>
+        <v>75.84329881593</v>
       </c>
       <c r="R13">
-        <v>1362.47451910024</v>
+        <v>682.5896893433701</v>
       </c>
       <c r="S13">
-        <v>0.04765278276517122</v>
+        <v>0.04429174529116451</v>
       </c>
       <c r="T13">
-        <v>0.07037156816990259</v>
+        <v>0.06517868594271706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.7347125</v>
+        <v>24.426712</v>
       </c>
       <c r="H14">
-        <v>47.469425</v>
+        <v>48.853424</v>
       </c>
       <c r="I14">
-        <v>0.150884303501402</v>
+        <v>0.1410578456622277</v>
       </c>
       <c r="J14">
-        <v>0.1116220131585019</v>
+        <v>0.1040073058467926</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>357.44809310975</v>
+        <v>180.011383894976</v>
       </c>
       <c r="R14">
-        <v>1429.792372439</v>
+        <v>720.045535579904</v>
       </c>
       <c r="S14">
-        <v>0.1125162818298357</v>
+        <v>0.1051248889415616</v>
       </c>
       <c r="T14">
-        <v>0.07384852340016146</v>
+        <v>0.06875524573651971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.7347125</v>
+        <v>24.426712</v>
       </c>
       <c r="H15">
-        <v>47.469425</v>
+        <v>48.853424</v>
       </c>
       <c r="I15">
-        <v>0.150884303501402</v>
+        <v>0.1410578456622277</v>
       </c>
       <c r="J15">
-        <v>0.1116220131585019</v>
+        <v>0.1040073058467926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>2.620628722833333</v>
+        <v>2.697034694293333</v>
       </c>
       <c r="R15">
-        <v>15.723772337</v>
+        <v>16.18220816576</v>
       </c>
       <c r="S15">
-        <v>0.0008249124995587643</v>
+        <v>0.001575041903319528</v>
       </c>
       <c r="T15">
-        <v>0.0008121300629034484</v>
+        <v>0.001545196302203692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.7347125</v>
+        <v>24.426712</v>
       </c>
       <c r="H16">
-        <v>47.469425</v>
+        <v>48.853424</v>
       </c>
       <c r="I16">
-        <v>0.150884303501402</v>
+        <v>0.1410578456622277</v>
       </c>
       <c r="J16">
-        <v>0.1116220131585019</v>
+        <v>0.1040073058467926</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>1.2953219346875</v>
+        <v>2.072435526216</v>
       </c>
       <c r="R16">
-        <v>7.771931608125001</v>
+        <v>12.434613157296</v>
       </c>
       <c r="S16">
-        <v>0.0004077369852380712</v>
+        <v>0.001210282093376452</v>
       </c>
       <c r="T16">
-        <v>0.0004014188943028231</v>
+        <v>0.001187348356489565</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.7347125</v>
+        <v>24.426712</v>
       </c>
       <c r="H17">
-        <v>47.469425</v>
+        <v>48.853424</v>
       </c>
       <c r="I17">
-        <v>0.150884303501402</v>
+        <v>0.1410578456622277</v>
       </c>
       <c r="J17">
-        <v>0.1116220131585019</v>
+        <v>0.1040073058467926</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>117.9737524135084</v>
+        <v>56.76059494152001</v>
       </c>
       <c r="R17">
-        <v>707.8425144810501</v>
+        <v>340.56356964912</v>
       </c>
       <c r="S17">
-        <v>0.0371353721867694</v>
+        <v>0.03314763272397011</v>
       </c>
       <c r="T17">
-        <v>0.03655994080113412</v>
+        <v>0.0325195154515796</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.19545866666667</v>
+        <v>28.45836133333333</v>
       </c>
       <c r="H18">
-        <v>54.586376</v>
+        <v>85.37508399999999</v>
       </c>
       <c r="I18">
-        <v>0.1156706283174295</v>
+        <v>0.164339561573299</v>
       </c>
       <c r="J18">
-        <v>0.1283571726463283</v>
+        <v>0.1817606985599127</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>274.0261548842133</v>
+        <v>209.7224140112106</v>
       </c>
       <c r="R18">
-        <v>1644.15692930528</v>
+        <v>1258.334484067264</v>
       </c>
       <c r="S18">
-        <v>0.08625701092279055</v>
+        <v>0.12247584016324</v>
       </c>
       <c r="T18">
-        <v>0.08492041488528695</v>
+        <v>0.1201550351966325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.19545866666667</v>
+        <v>28.45836133333333</v>
       </c>
       <c r="H19">
-        <v>54.586376</v>
+        <v>85.37508399999999</v>
       </c>
       <c r="I19">
-        <v>0.1156706283174295</v>
+        <v>0.164339561573299</v>
       </c>
       <c r="J19">
-        <v>0.1283571726463283</v>
+        <v>0.1817606985599127</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>2.009021242915555</v>
+        <v>3.142182536017777</v>
       </c>
       <c r="R19">
-        <v>18.08119118624</v>
+        <v>28.27964282415999</v>
       </c>
       <c r="S19">
-        <v>0.0006323927997585047</v>
+        <v>0.001835003892452172</v>
       </c>
       <c r="T19">
-        <v>0.0009338903299239731</v>
+        <v>0.002700348374704086</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.19545866666667</v>
+        <v>28.45836133333333</v>
       </c>
       <c r="H20">
-        <v>54.586376</v>
+        <v>85.37508399999999</v>
       </c>
       <c r="I20">
-        <v>0.1156706283174295</v>
+        <v>0.164339561573299</v>
       </c>
       <c r="J20">
-        <v>0.1283571726463283</v>
+        <v>0.1817606985599127</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>0.9930171567333335</v>
+        <v>2.414492750603999</v>
       </c>
       <c r="R20">
-        <v>8.937154410600002</v>
+        <v>21.730434755436</v>
       </c>
       <c r="S20">
-        <v>0.0003125785265682321</v>
+        <v>0.001410040169490276</v>
       </c>
       <c r="T20">
-        <v>0.0004616024461623068</v>
+        <v>0.002074981800099796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.19545866666667</v>
+        <v>28.45836133333333</v>
       </c>
       <c r="H21">
-        <v>54.586376</v>
+        <v>85.37508399999999</v>
       </c>
       <c r="I21">
-        <v>0.1156706283174295</v>
+        <v>0.164339561573299</v>
       </c>
       <c r="J21">
-        <v>0.1283571726463283</v>
+        <v>0.1817606985599127</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>90.44080629969957</v>
+        <v>66.12897881388</v>
       </c>
       <c r="R21">
-        <v>813.9672566972961</v>
+        <v>595.1608093249199</v>
       </c>
       <c r="S21">
-        <v>0.0284686460683122</v>
+        <v>0.0386186773481165</v>
       </c>
       <c r="T21">
-        <v>0.04204126498495503</v>
+        <v>0.05683033318847632</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.807309</v>
+        <v>29.076423</v>
       </c>
       <c r="H22">
-        <v>86.421927</v>
+        <v>87.229269</v>
       </c>
       <c r="I22">
-        <v>0.1831313842210925</v>
+        <v>0.1679087053527158</v>
       </c>
       <c r="J22">
-        <v>0.2032169016746482</v>
+        <v>0.1857081964137282</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>433.84210656326</v>
+        <v>214.277187324504</v>
       </c>
       <c r="R22">
-        <v>2603.05263937956</v>
+        <v>1285.663123947024</v>
       </c>
       <c r="S22">
-        <v>0.1365633267393975</v>
+        <v>0.125135783264357</v>
       </c>
       <c r="T22">
-        <v>0.1344472088791163</v>
+        <v>0.1227645748128521</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.807309</v>
+        <v>29.076423</v>
       </c>
       <c r="H23">
-        <v>86.421927</v>
+        <v>87.229269</v>
       </c>
       <c r="I23">
-        <v>0.1831313842210925</v>
+        <v>0.1679087053527158</v>
       </c>
       <c r="J23">
-        <v>0.2032169016746482</v>
+        <v>0.1857081964137282</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>3.180711011053333</v>
+        <v>3.21042478484</v>
       </c>
       <c r="R23">
-        <v>28.62639909948</v>
+        <v>28.89382306356</v>
       </c>
       <c r="S23">
-        <v>0.001001213276661838</v>
+        <v>0.001874856698832151</v>
       </c>
       <c r="T23">
-        <v>0.001478548455363578</v>
+        <v>0.00275899482301857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.807309</v>
+        <v>29.076423</v>
       </c>
       <c r="H24">
-        <v>86.421927</v>
+        <v>87.229269</v>
       </c>
       <c r="I24">
-        <v>0.1831313842210925</v>
+        <v>0.1679087053527158</v>
       </c>
       <c r="J24">
-        <v>0.2032169016746482</v>
+        <v>0.1857081964137282</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>1.572158888675</v>
+        <v>2.466930956589</v>
       </c>
       <c r="R24">
-        <v>14.149429998075</v>
+        <v>22.202378609301</v>
       </c>
       <c r="S24">
-        <v>0.000494878769838967</v>
+        <v>0.00144066356930639</v>
       </c>
       <c r="T24">
-        <v>0.0007308155592754556</v>
+        <v>0.002120046471766977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.807309</v>
+        <v>29.076423</v>
       </c>
       <c r="H25">
-        <v>86.421927</v>
+        <v>87.229269</v>
       </c>
       <c r="I25">
-        <v>0.1831313842210925</v>
+        <v>0.1679087053527158</v>
       </c>
       <c r="J25">
-        <v>0.2032169016746482</v>
+        <v>0.1857081964137282</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>143.1871710965713</v>
+        <v>67.56517488933001</v>
       </c>
       <c r="R25">
-        <v>1288.684539869142</v>
+        <v>608.0865740039701</v>
       </c>
       <c r="S25">
-        <v>0.0450719654351942</v>
+        <v>0.0394574018202203</v>
       </c>
       <c r="T25">
-        <v>0.06656032878089285</v>
+        <v>0.05806458030609059</v>
       </c>
     </row>
   </sheetData>
